--- a/testes/Pipeline.xlsx
+++ b/testes/Pipeline.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioestebr-my.sharepoint.com/personal/vinicius_viana_unioeste_br/Documents/4°  ANO/CG/3° trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="802" documentId="8_{CE184312-639B-4452-8DBB-D92E5F8512BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61ED1C35-BDA8-40BB-B875-5298A5E8A462}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9FEDC8D-C620-4F22-BE3C-4DAFB6CA1E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6435" windowWidth="29040" windowHeight="15720" xr2:uid="{E4066102-3FFC-48AD-88DA-DDE74771DCC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="A">Planilha1!$B$20:$E$23</definedName>
-    <definedName name="AR">Planilha1!$P$14</definedName>
-    <definedName name="B">Planilha1!$T$19:$V$21</definedName>
-    <definedName name="far">Planilha1!$N$16</definedName>
-    <definedName name="HRES">Planilha1!$P$10</definedName>
-    <definedName name="N">Planilha1!$T$6:$V$6</definedName>
-    <definedName name="N0">Planilha1!$H$30:$K$32</definedName>
-    <definedName name="near">Planilha1!$N$15</definedName>
-    <definedName name="u">Planilha1!$T$16:$V$16</definedName>
-    <definedName name="V">Planilha1!$T$12:$V$12</definedName>
-    <definedName name="VRES">Planilha1!$N$10</definedName>
-    <definedName name="YY">Planilha1!$T$10:$V$10</definedName>
+    <definedName name="AR">Planilha1!$P$21</definedName>
+    <definedName name="B">Planilha1!$T$26:$V$28</definedName>
+    <definedName name="far">Planilha1!$N$23</definedName>
+    <definedName name="HRES">Planilha1!$P$17</definedName>
+    <definedName name="N">Planilha1!$T$13:$V$13</definedName>
+    <definedName name="N0">Planilha1!$H$37:$K$39</definedName>
+    <definedName name="near">Planilha1!$N$22</definedName>
+    <definedName name="u">Planilha1!$T$23:$V$23</definedName>
+    <definedName name="V">Planilha1!$T$19:$V$19</definedName>
+    <definedName name="VRES">Planilha1!$N$17</definedName>
+    <definedName name="YY">Planilha1!$T$17:$V$17</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,19 +57,19 @@
     <author>tc={7EE09ACC-DC3C-4D86-9810-28887133B82F}</author>
   </authors>
   <commentList>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{4DAB3095-40DD-479C-BF1F-32F0B74476E8}">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{4DAB3095-40DD-479C-BF1F-32F0B74476E8}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     VALOR ARBITRARIO</t>
       </text>
     </comment>
     <comment ref="D67" authorId="1" shapeId="0" xr:uid="{7EE09ACC-DC3C-4D86-9810-28887133B82F}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Z MÁXIMO DEFINIDO COMO 1</t>
       </text>
     </comment>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -99,7 +100,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+  <si>
+    <t>OBJETO - Cubo:</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>A =</t>
+  </si>
+  <si>
+    <t>matriz final</t>
+  </si>
+  <si>
+    <t>B =</t>
+  </si>
+  <si>
+    <t>D =</t>
+  </si>
+  <si>
+    <t>C =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K = </t>
+  </si>
+  <si>
+    <t>L =</t>
+  </si>
+  <si>
+    <t>P =</t>
+  </si>
+  <si>
+    <t>M =</t>
+  </si>
+  <si>
+    <t>J =</t>
+  </si>
   <si>
     <t>Arthur Angelo Cenci Silva</t>
   </si>
@@ -113,7 +183,7 @@
     <t>Vinicius Vieira Viana</t>
   </si>
   <si>
-    <t>OBJETO - PIRAMIDE:</t>
+    <t xml:space="preserve">VRP = </t>
   </si>
   <si>
     <t>LIMITES DA WINDOW</t>
@@ -125,21 +195,6 @@
     <t>N =</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Xmin =</t>
   </si>
   <si>
@@ -149,9 +204,6 @@
     <t xml:space="preserve">CU = </t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Ymin</t>
   </si>
   <si>
@@ -164,10 +216,7 @@
     <t>^n =</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
+    <t>Y =</t>
   </si>
   <si>
     <t>Zmin =</t>
@@ -185,10 +234,7 @@
     <t>Y' =</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRP = </t>
+    <t>THE VIEWING TRANSFORMATION</t>
   </si>
   <si>
     <t>LIMITES DA VIEWPORT</t>
@@ -209,9 +255,6 @@
     <t>SU =</t>
   </si>
   <si>
-    <t>P =</t>
-  </si>
-  <si>
     <t>Vmin =</t>
   </si>
   <si>
@@ -224,9 +267,6 @@
     <t>^v =</t>
   </si>
   <si>
-    <t>Y =</t>
-  </si>
-  <si>
     <t xml:space="preserve">DP = </t>
   </si>
   <si>
@@ -236,18 +276,9 @@
     <t>û =</t>
   </si>
   <si>
-    <t>THE VIEWING TRANSFORMATION</t>
-  </si>
-  <si>
     <t>PAR =</t>
   </si>
   <si>
-    <t>B =</t>
-  </si>
-  <si>
-    <t>A =</t>
-  </si>
-  <si>
     <t>NL =</t>
   </si>
   <si>
@@ -257,59 +288,41 @@
     <t>NPS=</t>
   </si>
   <si>
-    <t>D =</t>
-  </si>
-  <si>
     <t>NOR =</t>
   </si>
   <si>
-    <t>C =</t>
+    <t>E =</t>
   </si>
   <si>
     <t>NO =</t>
   </si>
   <si>
-    <t>E =</t>
-  </si>
-  <si>
-    <t>J =</t>
+    <t>F=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G = </t>
   </si>
   <si>
     <t>S = JKLM</t>
   </si>
   <si>
-    <t>F=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G = </t>
-  </si>
-  <si>
     <t>H =</t>
   </si>
   <si>
-    <t xml:space="preserve">K = </t>
+    <t>pNPS =</t>
   </si>
   <si>
     <t xml:space="preserve">KL = </t>
   </si>
   <si>
     <t>OBJETO</t>
-  </si>
-  <si>
-    <t>L =</t>
-  </si>
-  <si>
-    <t>M =</t>
-  </si>
-  <si>
-    <t>pNPS =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +335,14 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -590,6 +611,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -659,22 +704,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -810,19 +855,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,19 +879,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,7 +1652,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="344453"/>
@@ -1665,7 +1710,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="344453"/>
@@ -1675,6 +1720,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F074BC-9304-4A34-8035-EB51C114A47D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{959FB585-83E1-761E-936C-00604DACBD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2129,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J10" dT="2025-10-05T14:44:24.89" personId="{C6A75049-A11B-42BE-B47D-171D941D51A6}" id="{4DAB3095-40DD-479C-BF1F-32F0B74476E8}">
+  <threadedComment ref="J17" dT="2025-10-05T14:44:24.89" personId="{C6A75049-A11B-42BE-B47D-171D941D51A6}" id="{4DAB3095-40DD-479C-BF1F-32F0B74476E8}">
     <text>VALOR ARBITRARIO</text>
   </threadedComment>
   <threadedComment ref="D67" dT="2025-10-05T14:36:55.42" personId="{C6A75049-A11B-42BE-B47D-171D941D51A6}" id="{7EE09ACC-DC3C-4D86-9810-28887133B82F}">
@@ -2091,598 +2139,1505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB595F8-2F4A-4C50-A841-309F987ADBD6}">
+  <dimension ref="A2:O63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" cm="1">
+        <f t="array" ref="B20:E23">TRANSPOSE(Planilha1!B20:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-30</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20:K23">MMULT(_xlfn.ANCHORARRAY(B55),MMULT(_xlfn.ANCHORARRAY(B45),MMULT(_xlfn.ANCHORARRAY(B40),MMULT(B60:E63,MMULT(_xlfn.ANCHORARRAY(B50),MMULT(_xlfn.ANCHORARRAY(B30),MMULT(_xlfn.ANCHORARRAY(B35),MMULT(_xlfn.ANCHORARRAY(B25),_xlfn.ANCHORARRAY(B20)))))))))</f>
+        <v>-7.891986256863253E-3</v>
+      </c>
+      <c r="I20">
+        <v>-1.6162551595838695E-2</v>
+      </c>
+      <c r="J20">
+        <v>-4.3408626136137274E-2</v>
+      </c>
+      <c r="K20">
+        <v>5.2241242651531694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="27"/>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-40</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21">
+        <v>1.922488403372024E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.9270744025535379E-2</v>
+      </c>
+      <c r="J21">
+        <v>6.5629776528907044E-2</v>
+      </c>
+      <c r="K21">
+        <v>-7.9105539349237244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="27"/>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-100</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22">
+        <v>3.6637362919175773E-3</v>
+      </c>
+      <c r="I22">
+        <v>4.8007578997540674E-3</v>
+      </c>
+      <c r="J22">
+        <v>1.2507237686201385E-2</v>
+      </c>
+      <c r="K22">
+        <v>-1.7193328400344949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="27"/>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23">
+        <v>2.1982417751505463E-3</v>
+      </c>
+      <c r="I23">
+        <v>2.8804547398524403E-3</v>
+      </c>
+      <c r="J23">
+        <v>7.5043426117208309E-3</v>
+      </c>
+      <c r="K23">
+        <v>-0.93159970402069703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" ref="B25:E28">TRANSPOSE(Planilha1!B25:E28)</f>
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="27"/>
+      <c r="B26">
+        <v>-9.7169210089307248E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.93836182737786555</v>
+      </c>
+      <c r="D26">
+        <v>-0.33171557927039375</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26:O29">MMULT(_xlfn.ANCHORARRAY(H20),B6:I9)</f>
+        <v>5.2241242651531694</v>
+      </c>
+      <c r="I26">
+        <v>5.2162322788963058</v>
+      </c>
+      <c r="J26">
+        <v>5.2079617135573306</v>
+      </c>
+      <c r="K26">
+        <v>5.2000697273004679</v>
+      </c>
+      <c r="L26">
+        <v>5.1807156390170324</v>
+      </c>
+      <c r="M26">
+        <v>5.1728236527601688</v>
+      </c>
+      <c r="N26">
+        <v>5.1645530874211936</v>
+      </c>
+      <c r="O26">
+        <v>5.15666110116433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="27"/>
+      <c r="B27">
+        <v>0.26378901301806557</v>
+      </c>
+      <c r="C27">
+        <v>0.34565456878229284</v>
+      </c>
+      <c r="D27">
+        <v>0.90052111340649976</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>-7.9105539349237244</v>
+      </c>
+      <c r="I27">
+        <v>-7.891329050890004</v>
+      </c>
+      <c r="J27">
+        <v>-7.8912831908981893</v>
+      </c>
+      <c r="K27">
+        <v>-7.8720583068644689</v>
+      </c>
+      <c r="L27">
+        <v>-7.844924158394817</v>
+      </c>
+      <c r="M27">
+        <v>-7.8256992743610967</v>
+      </c>
+      <c r="N27">
+        <v>-7.825653414369282</v>
+      </c>
+      <c r="O27">
+        <v>-7.8064285303355616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="27"/>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>-1.7193328400344949</v>
+      </c>
+      <c r="I28">
+        <v>-1.7156691037425773</v>
+      </c>
+      <c r="J28">
+        <v>-1.714532082134741</v>
+      </c>
+      <c r="K28">
+        <v>-1.7108683458428233</v>
+      </c>
+      <c r="L28">
+        <v>-1.7068256023482935</v>
+      </c>
+      <c r="M28">
+        <v>-1.7031618660563759</v>
+      </c>
+      <c r="N28">
+        <v>-1.7020248444485395</v>
+      </c>
+      <c r="O28">
+        <v>-1.6983611081566219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1"/>
+      <c r="H29">
+        <v>-0.93159970402069703</v>
+      </c>
+      <c r="I29">
+        <v>-0.92940146224554643</v>
+      </c>
+      <c r="J29">
+        <v>-0.92871924928084459</v>
+      </c>
+      <c r="K29">
+        <v>-0.92652100750569399</v>
+      </c>
+      <c r="L29">
+        <v>-0.92409536140897619</v>
+      </c>
+      <c r="M29">
+        <v>-0.9218971196338257</v>
+      </c>
+      <c r="N29">
+        <v>-0.92121490666912376</v>
+      </c>
+      <c r="O29">
+        <v>-0.91901666489397316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" cm="1">
+        <f t="array" ref="B30:E33">TRANSPOSE(Planilha1!B30:E33)</f>
+        <v>4.6296296296296298E-4</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="27"/>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="27"/>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="27"/>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" cm="1">
+        <f t="array" ref="B35:E38">TRANSPOSE(Planilha1!B35:E38)</f>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>-11</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="27"/>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>-12</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="27"/>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="27"/>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" cm="1">
+        <f t="array" ref="B40:E43">TRANSPOSE(Planilha1!B60:E63)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" cm="1">
+        <f t="array" ref="B45:E48">TRANSPOSE(Planilha1!B65:E68)</f>
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="26"/>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="26"/>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E47">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="26"/>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" cm="1">
+        <f t="array" ref="B50:E53">TRANSPOSE(Planilha1!B70:E73)</f>
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="26"/>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="26"/>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1.2</v>
+      </c>
+      <c r="E52">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="26"/>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" cm="1">
+        <f t="array" ref="B55:E58">TRANSPOSE(Planilha1!B75:E78)</f>
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="26"/>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="26"/>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="26"/>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="26"/>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="26"/>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="26"/>
+      <c r="B63" s="21">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A35:A38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB91BD66-ECEE-4C19-9F75-3F099BAEE574}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.140625" style="1"/>
+    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75">
       <c r="A3" s="14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75">
       <c r="A4" s="14" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:23">
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="H6" s="28" t="s">
+      <c r="F7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="M6" s="13" t="s">
+      <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="S6" s="1" t="s">
+      <c r="H7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="21" cm="1">
-        <f t="array" ref="T6:V6">B12:D12-B14:D14</f>
+      <c r="I7" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
+      <c r="H13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="1">
+      <c r="N13" s="2"/>
+      <c r="S13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="21" cm="1">
+        <f t="array" ref="T13:V13">B12:D12-B14:D14</f>
+        <v>29</v>
+      </c>
+      <c r="U13" s="1">
         <v>38</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V13" s="1">
         <v>99</v>
       </c>
-      <c r="W6" s="21"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="5">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="5">
+        <f>(I20+K20)/2</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
+      <c r="H15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="7">
+        <v>-8</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="8">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-10</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5">
-        <v>10</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>-8</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="8">
-        <v>8</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="21" cm="1">
-        <f t="array" ref="T8:V8">_xlfn.ANCHORARRAY(T6)/SQRT(T6^2+U6^2+V6^2)</f>
+      <c r="M15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="8">
+        <f>(K21+I21)/2</f>
+        <v>600</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="21" cm="1">
+        <f t="array" ref="T15:V15">_xlfn.ANCHORARRAY(T13)/SQRT(T13^2+U13^2+V13^2)</f>
         <v>0.26378901301806557</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U15" s="1">
         <v>0.34565456878229284</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V15" s="1">
         <v>0.90052111340649976</v>
       </c>
-      <c r="W8" s="21"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-3</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="W15" s="21"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="H17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="10">
         <f>near/far</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="10">
+      <c r="J17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="10">
         <v>900</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="11">
+      <c r="O17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="11">
         <v>600</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="21" cm="1">
-        <f t="array" ref="T10:V10">SUMPRODUCT(B16:D16,_xlfn.ANCHORARRAY(T8))*_xlfn.ANCHORARRAY(T8)</f>
+      <c r="S17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="21" cm="1">
+        <f t="array" ref="T17:V17">SUMPRODUCT(B16:D16,_xlfn.ANCHORARRAY(T15))*_xlfn.ANCHORARRAY(T15)</f>
         <v>9.1179877544266083E-2</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U17" s="1">
         <v>0.11947708092007281</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V17" s="12">
         <v>0.31126923713387389</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10">
+    <row r="19" spans="1:24">
+      <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="M19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="S19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="21" cm="1">
+        <f t="array" ref="T19:V19">B16:D16-_xlfn.ANCHORARRAY(T17)</f>
+        <v>-9.1179877544266083E-2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.88052291907992719</v>
+      </c>
+      <c r="V19" s="12">
+        <v>-0.31126923713387389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="4">
+        <v>100</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="5">
+        <f>K20-I20</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="27"/>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="7">
+        <v>300</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="8">
+        <v>900</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="5">
+        <f>K21-I21</f>
+        <v>600</v>
+      </c>
+      <c r="P21" s="23">
+        <f>N20/N21</f>
+        <v>1.5</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="21" cm="1">
+        <f t="array" ref="T21:V21">_xlfn.ANCHORARRAY(T19)/SQRT(T19^2+U19^2+V19^2)</f>
+        <v>-9.7169210089307248E-2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.93836182737786555</v>
+      </c>
+      <c r="V21" s="1">
+        <v>-0.33171557927039375</v>
+      </c>
+      <c r="W21" s="21"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="27"/>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10">
-        <v>40</v>
-      </c>
-      <c r="D12" s="11">
-        <v>100</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="S12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="21" cm="1">
-        <f t="array" ref="T12:V12">B16:D16-_xlfn.ANCHORARRAY(T10)</f>
-        <v>-9.1179877544266083E-2</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0.88052291907992719</v>
-      </c>
-      <c r="V12" s="12">
-        <v>-0.31126923713387389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="4">
-        <v>100</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="7">
-        <v>300</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="8">
-        <v>900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="5">
-        <v>8</v>
-      </c>
-      <c r="P14" s="1">
-        <f>N13/N14</f>
-        <v>1.25</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="21" cm="1">
-        <f t="array" ref="T14:V14">_xlfn.ANCHORARRAY(T12)/SQRT(T12^2+U12^2+V12^2)</f>
-        <v>-9.7169210089307248E-2</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0.93836182737786555</v>
-      </c>
-      <c r="V14" s="1">
-        <v>-0.33171557927039375</v>
-      </c>
-      <c r="W14" s="21"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="N22" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="11">
+    <row r="23" spans="1:24">
+      <c r="A23" s="27"/>
+      <c r="B23" s="1" cm="1">
+        <f t="array" ref="B23:D23">-B12:D12</f>
+        <v>-30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-40</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="11">
         <v>50</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="M23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="8">
         <v>120</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="21">
+      <c r="S23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23" s="21">
         <v>0.95960000000000001</v>
       </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
         <v>-0.28100000000000003</v>
       </c>
-      <c r="W16" s="21"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="M19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="1">
-        <f>AR*(VRES/HRES)</f>
-        <v>1.875</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" s="1" cm="1">
-        <f t="array" ref="T19:T21">TRANSPOSE(u)</f>
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="U19" s="1" cm="1">
-        <f t="array" ref="U19:U21">TRANSPOSE(_xlfn.ANCHORARRAY(T14))</f>
-        <v>-9.7169210089307248E-2</v>
-      </c>
-      <c r="V19" s="12" cm="1">
-        <f t="array" ref="V19:V21">TRANSPOSE(_xlfn.ANCHORARRAY(T8))</f>
-        <v>0.26378901301806557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="20" cm="1">
-        <f t="array" ref="H20:K23">MMULT(B20:E23,B25:E28)</f>
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-9.7169210089307248E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.26378901301806557</v>
-      </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.93836182737786555</v>
-      </c>
-      <c r="V20" s="12">
-        <v>0.34565456878229284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="20">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.93836182737786555</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.34565456878229284</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="1">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="U21" s="1">
-        <v>-0.33171557927039375</v>
-      </c>
-      <c r="V21" s="12">
-        <v>0.90052111340649976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="20">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-0.33171557927039375</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.90052111340649976</v>
-      </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="1" cm="1">
-        <f t="array" ref="B23:D23">-B14:D14</f>
-        <v>-1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="20">
-        <v>-0.67859999999999998</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-1.4478388653960299</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.8556192639891509</v>
-      </c>
-      <c r="K23" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>47</v>
+      <c r="W23" s="21"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="B25" s="1" cm="1">
         <f t="array" ref="B25:D27">B</f>
@@ -2697,25 +3652,9 @@
       <c r="E25" s="12">
         <v>0</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="20" cm="1">
-        <f t="array" ref="H25:K28">MMULT(B40:E43,B45:E48)</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="27"/>
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -2728,22 +3667,32 @@
       <c r="E26" s="12">
         <v>0</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="H26" s="15"/>
+      <c r="M26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="1">
+        <f>AR*(VRES/HRES)</f>
+        <v>2.25</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T26" s="1" cm="1">
+        <f t="array" ref="T26:T28">TRANSPOSE(u)</f>
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="U26" s="1" cm="1">
+        <f t="array" ref="U26:U28">TRANSPOSE(_xlfn.ANCHORARRAY(T21))</f>
+        <v>-9.7169210089307248E-2</v>
+      </c>
+      <c r="V26" s="12" cm="1">
+        <f t="array" ref="V26:V28">TRANSPOSE(_xlfn.ANCHORARRAY(T15))</f>
+        <v>0.26378901301806557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="27"/>
       <c r="B27" s="1">
         <v>-0.28100000000000003</v>
       </c>
@@ -2756,352 +3705,385 @@
       <c r="E27" s="12">
         <v>0</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="20">
-        <v>0</v>
+      <c r="G27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="20" cm="1">
+        <f t="array" ref="H27:K30">MMULT(B20:E23,B25:E28)</f>
+        <v>0.95960000000000001</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>-9.7169210089307248E-2</v>
       </c>
       <c r="J27" s="1">
+        <v>0.26378901301806557</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="S27" s="12"/>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.93836182737786555</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0.34565456878229284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="27"/>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.93836182737786555</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.34565456878229284</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="S28" s="12"/>
+      <c r="T28" s="1">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="U28" s="1">
+        <v>-0.33171557927039375</v>
+      </c>
+      <c r="V28" s="12">
+        <v>0.90052111340649976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="H29" s="20">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-0.33171557927039375</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.90052111340649976</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <f>I23/(N20*N23)</f>
+        <v>4.6296296296296298E-4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="20">
+        <v>-0.68799999999999883</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-1.4478388653960295</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-111.79196448248365</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1</v>
+      </c>
+      <c r="X30" s="12"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="27"/>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <f>I23/(N21*N23)</f>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="X31" s="12"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="27"/>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <f>1/N23</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="K27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="20">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T29" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="U29" s="1" cm="1">
-        <f t="array" ref="U29:X32">MMULT(_xlfn.ANCHORARRAY(H35),MMULT(B70:E73,_xlfn.ANCHORARRAY(N43)))</f>
-        <v>0.96091894506509035</v>
-      </c>
-      <c r="V29" s="1">
-        <v>9.8488155154397572E-2</v>
-      </c>
-      <c r="W29" s="1">
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="20" cm="1">
+        <f t="array" ref="H32:K35">MMULT(B40:E43,B45:E48)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0</v>
+      </c>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="27"/>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="27"/>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="U36" s="1" cm="1">
+        <f t="array" ref="U36:X39">MMULT(_xlfn.ANCHORARRAY(H42),MMULT(B70:E73,_xlfn.ANCHORARRAY(N50)))</f>
+        <v>1.198116728731255E-2</v>
+      </c>
+      <c r="V36" s="1">
+        <v>2.6145345329477579E-3</v>
+      </c>
+      <c r="W36" s="1">
         <v>4.3964835503010925E-3</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X36" s="1">
         <v>2.6378901301806557E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1">
-        <f>I16/N13*N16</f>
-        <v>600</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="20">
-        <f>1/N13</f>
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="19">
-        <v>0</v>
-      </c>
-      <c r="T30" s="22"/>
-      <c r="U30" s="1">
+    <row r="37" spans="1:24">
+      <c r="A37" s="27"/>
+      <c r="B37" s="1">
+        <f>-N14/I23</f>
+        <v>-11</v>
+      </c>
+      <c r="C37" s="1">
+        <f>-N15/I23</f>
+        <v>-12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="20">
+        <f>1/N20</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19">
+        <v>0</v>
+      </c>
+      <c r="T37" s="12"/>
+      <c r="U37" s="1">
         <v>1.7282728439114642E-3</v>
       </c>
-      <c r="V30" s="1">
-        <v>-0.93663355453395414</v>
-      </c>
-      <c r="W30" s="1">
+      <c r="V37" s="1">
+        <v>-1.078321818779341E-2</v>
+      </c>
+      <c r="W37" s="1">
         <v>5.7609094797048807E-3</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X37" s="1">
         <v>3.4565456878229285E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <f>I16/N14*N16</f>
-        <v>750</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="20">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <f>1/N14</f>
-        <v>0.125</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="19">
-        <v>0</v>
-      </c>
-      <c r="T31" s="22"/>
-      <c r="U31" s="1">
-        <v>-0.2764973944329675</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0.33621818483742627</v>
-      </c>
-      <c r="W31" s="1">
+    <row r="38" spans="1:24">
+      <c r="A38" s="27"/>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+      <c r="H38" s="20">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f>1/N21</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12"/>
+      <c r="U38" s="1">
+        <v>1.3803833448102765E-3</v>
+      </c>
+      <c r="V38" s="1">
+        <v>8.9254799573044163E-3</v>
+      </c>
+      <c r="W38" s="1">
         <v>1.5008685223441662E-2</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X38" s="1">
         <v>9.0052111340649978E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <f>1/N16</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="20">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
+    <row r="39" spans="1:24">
+      <c r="H39" s="20">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
         <f>1/(far-near)</f>
         <v>0.01</v>
       </c>
-      <c r="K32" s="19">
-        <v>0</v>
-      </c>
-      <c r="T32" s="22"/>
-      <c r="U32" s="1">
-        <v>-0.78787809631994588</v>
-      </c>
-      <c r="V32" s="1">
-        <v>1.3385607690760841</v>
-      </c>
-      <c r="W32" s="1">
-        <v>-0.5309269877331525</v>
-      </c>
-      <c r="X32" s="12">
-        <v>-0.21855619263989151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="20">
-        <f>-N7/N13</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <f>-N8/N14</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <f>-near/(far-near)</f>
-        <v>-0.2</v>
-      </c>
-      <c r="K33" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="20" cm="1">
-        <f t="array" ref="H35:K38">MMULT(_xlfn.ANCHORARRAY(H20),H30:K33)</f>
-        <v>9.5960000000000004E-2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>-1.2146151261163406E-2</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2.6378901301806557E-3</v>
-      </c>
-      <c r="K35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="20">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.11729522842223319</v>
-      </c>
-      <c r="J36" s="1">
-        <v>3.4565456878229285E-3</v>
-      </c>
-      <c r="K36" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="1">
-        <f>-N7/I16</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <f>-N8/I16</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="20">
-        <v>-2.8100000000000003E-2</v>
-      </c>
-      <c r="I37" s="1">
-        <v>-4.1464447408799218E-2</v>
-      </c>
-      <c r="J37" s="1">
-        <v>9.0052111340649978E-3</v>
-      </c>
-      <c r="K37" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <v>1</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="20">
-        <v>-6.7860000000000004E-2</v>
-      </c>
-      <c r="I38" s="1">
-        <v>-0.18097985817450374</v>
-      </c>
-      <c r="J38" s="1">
-        <v>-0.21855619263989151</v>
-      </c>
-      <c r="K38" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>56</v>
+      <c r="K39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="12"/>
+      <c r="U39" s="1">
+        <v>-6.7777153779679749</v>
+      </c>
+      <c r="V39" s="1">
+        <v>7.3603446957928611</v>
+      </c>
+      <c r="W39" s="1">
+        <v>-2.3631994080413938</v>
+      </c>
+      <c r="X39" s="1">
+        <v>-1.3179196448248365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="B40" s="20">
         <f>1/far</f>
@@ -3116,24 +4098,24 @@
       <c r="E40" s="19">
         <v>0</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
+      <c r="H40" s="20">
+        <f>-N14/N20</f>
+        <v>-0.61111111111111116</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <f>-N15/N21</f>
+        <v>-1</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+        <f>-near/(far-near)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="K40" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="26"/>
       <c r="B41" s="20">
         <v>0</v>
       </c>
@@ -3147,22 +4129,9 @@
       <c r="E41" s="19">
         <v>0</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="26"/>
       <c r="B42" s="20">
         <v>0</v>
       </c>
@@ -3176,22 +4145,25 @@
       <c r="E42" s="19">
         <v>0</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="1">
-        <v>0</v>
+      <c r="G42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="20" cm="1">
+        <f t="array" ref="H42:K45">MMULT(_xlfn.ANCHORARRAY(H27),H37:K40)</f>
+        <v>1.0662222222222223E-3</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>-1.6194868348217876E-4</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+        <v>2.6378901301806557E-3</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="26"/>
       <c r="B43" s="20">
         <v>0</v>
       </c>
@@ -3204,56 +4176,39 @@
       <c r="E43" s="19">
         <v>1</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="20">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>1.5639363789631093E-3</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="12">
-        <v>1</v>
-      </c>
-      <c r="M43" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N43" s="1" cm="1">
-        <f t="array" ref="N43:Q46">MMULT(H40:K43,MMULT(_xlfn.ANCHORARRAY(H60),B75:E78))</f>
-        <v>10</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M44" s="22"/>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1">
-        <v>-8</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>59</v>
+        <v>3.4565456878229285E-3</v>
+      </c>
+      <c r="K43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="H44" s="20">
+        <v>-3.1222222222222225E-4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-5.5285929878398957E-4</v>
+      </c>
+      <c r="J44" s="1">
+        <v>9.0052111340649978E-3</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="B45" s="20">
-        <f>I16</f>
+        <f>I23</f>
         <v>50</v>
       </c>
       <c r="C45" s="1">
@@ -3265,22 +4220,21 @@
       <c r="E45" s="19">
         <v>0</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="H45" s="20">
+        <v>-0.61187555555555562</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-1.0024130647756599</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-1.3179196448248365</v>
+      </c>
+      <c r="K45" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="26"/>
       <c r="B46" s="20">
         <v>0</v>
       </c>
@@ -3294,238 +4248,332 @@
       <c r="E46" s="19">
         <v>0</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="1">
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="26"/>
+      <c r="B47" s="20">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="26"/>
+      <c r="B48" s="20">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="19">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="G49" s="12"/>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="20">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="H50" s="21">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N50" s="1" cm="1">
+        <f t="array" ref="N50:Q53">MMULT(H47:K50,MMULT(_xlfn.ANCHORARRAY(H67),B75:E78))</f>
+        <v>10</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="26"/>
+      <c r="B51" s="20">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="M51" s="12"/>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>-8</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="26"/>
+      <c r="B52" s="20">
+        <f>-N14</f>
+        <v>-550</v>
+      </c>
+      <c r="C52" s="1">
+        <f>-N15</f>
+        <v>-600</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="19">
+        <v>0</v>
+      </c>
+      <c r="M52" s="12"/>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="26"/>
+      <c r="B53" s="20">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="19">
+        <v>1</v>
+      </c>
+      <c r="M53" s="12"/>
+      <c r="N53" s="1">
         <v>0.5</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O53" s="1">
         <v>0.5</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P53" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="20">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="20">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M49" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N49" s="1" cm="1">
-        <f t="array" ref="N49:Q52">MMULT(_xlfn.ANCHORARRAY(H20),MMULT(_xlfn.ANCHORARRAY(H25),MMULT(B50:E53,MMULT(B55:E58,MMULT(B70:E73,_xlfn.ANCHORARRAY(N43))))))</f>
-        <v>-3.9392544845382729E-3</v>
-      </c>
-      <c r="O49" s="1">
-        <v>4.158629175811996E-2</v>
-      </c>
-      <c r="P49" s="1">
+      <c r="Q53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="20">
+        <f>1/N20</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="26"/>
+      <c r="B56" s="20">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <f>1/N21</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N56" s="1" cm="1">
+        <f t="array" ref="N56:Q59">MMULT(_xlfn.ANCHORARRAY(H27),MMULT(_xlfn.ANCHORARRAY(H32),MMULT(B50:E53,MMULT(B55:E58,MMULT(B70:E73,_xlfn.ANCHORARRAY(N50))))))</f>
+        <v>-13.602214345865589</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1.922488403372024E-2</v>
+      </c>
+      <c r="P56" s="1">
         <v>3.6637362919175773E-3</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q56" s="1">
         <v>2.1982417751505463E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="20">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="19">
-        <v>0</v>
-      </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="1">
-        <v>3.9112811747776997</v>
-      </c>
-      <c r="O50" s="1">
-        <v>-0.38954386737085112</v>
-      </c>
-      <c r="P50" s="1">
+    <row r="57" spans="1:17">
+      <c r="A57" s="26"/>
+      <c r="B57" s="20">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="19">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>-13.38905004330271</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1.9270744025535379E-2</v>
+      </c>
+      <c r="P57" s="1">
         <v>4.8007578997540665E-3</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q57" s="1">
         <v>2.8804547398524403E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="20">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="19">
-        <v>0</v>
-      </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="1">
-        <v>-1.495479408987447</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.14196699600185783</v>
-      </c>
-      <c r="P51" s="1">
+    <row r="58" spans="1:17">
+      <c r="A58" s="26"/>
+      <c r="B58" s="20">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>-46.451612543421106</v>
+      </c>
+      <c r="O58" s="1">
+        <v>6.562977652890703E-2</v>
+      </c>
+      <c r="P58" s="1">
         <v>1.2507237686201385E-2</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q58" s="1">
         <v>7.5043426117208309E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="20">
-        <f>-N7</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <f>-N8</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="19">
-        <v>0</v>
-      </c>
-      <c r="M52" s="23"/>
-      <c r="N52" s="1">
-        <v>-6.3231436860834132</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0.59553444698172431</v>
-      </c>
-      <c r="P52" s="1">
-        <v>-0.19243915644429377</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>-1.5463493866576257E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="20">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="20">
-        <f>1/N13</f>
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="20">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1">
-        <f>1/N14</f>
-        <v>0.125</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="20">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="20">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>62</v>
+    <row r="59" spans="1:17">
+      <c r="N59" s="1">
+        <v>5588.7896864501854</v>
+      </c>
+      <c r="O59" s="1">
+        <v>-7.9105539349237253</v>
+      </c>
+      <c r="P59" s="1">
+        <v>-1.7193328400344952</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>-0.93159970402069703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="B60" s="20">
         <v>0.5</v>
@@ -3539,28 +4587,9 @@
       <c r="E60" s="19">
         <v>0</v>
       </c>
-      <c r="G60" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="20" cm="1">
-        <f t="array" ref="H60:K63">MMULT(B60:E63,B65:E68)</f>
-        <v>10</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="19">
-        <v>0</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="26"/>
       <c r="B61" s="20">
         <v>0</v>
       </c>
@@ -3573,39 +4602,9 @@
       <c r="E61" s="19">
         <v>0</v>
       </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="20">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>8</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="19">
-        <v>0</v>
-      </c>
-      <c r="R61" s="12"/>
-      <c r="S61" s="1" cm="1">
-        <f t="array" ref="S61:W64">MMULT(_xlfn.ANCHORARRAY(N49),B8:F11)</f>
-        <v>-1.6854595846222557E-2</v>
-      </c>
-      <c r="T61" s="1">
-        <v>-7.4473423735116312E-2</v>
-      </c>
-      <c r="U61" s="1">
-        <v>-6.2472540504957652E-2</v>
-      </c>
-      <c r="V61" s="1">
-        <v>-4.8537126160639122E-3</v>
-      </c>
-      <c r="W61" s="12">
-        <v>0.25144047413124965</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="26"/>
       <c r="B62" s="20">
         <v>0</v>
       </c>
@@ -3618,38 +4617,9 @@
       <c r="E62" s="19">
         <v>0</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="20">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K62" s="19">
-        <v>0</v>
-      </c>
-      <c r="R62" s="12"/>
-      <c r="S62" s="1">
-        <v>-7.4109349958456798</v>
-      </c>
-      <c r="T62" s="1">
-        <v>12.539815503313426</v>
-      </c>
-      <c r="U62" s="1">
-        <v>16.027947505421992</v>
-      </c>
-      <c r="V62" s="1">
-        <v>-3.9228029937371094</v>
-      </c>
-      <c r="W62" s="12">
-        <v>1.5816991831921994</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="26"/>
       <c r="B63" s="20">
         <v>0.5</v>
       </c>
@@ -3662,141 +4632,203 @@
       <c r="E63" s="19">
         <v>1</v>
       </c>
-      <c r="G63" s="24"/>
-      <c r="H63" s="20">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="20">
+        <f>K14-I14</f>
+        <v>20</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="26"/>
+      <c r="B66" s="20">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <f>K15-I15</f>
+        <v>16</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="26"/>
+      <c r="B67" s="20">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <f>1-I17</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="20" cm="1">
+        <f t="array" ref="H67:K70">MMULT(B60:E63,B65:E68)</f>
+        <v>10</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="19">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="26"/>
+      <c r="B68" s="20">
+        <f>I14</f>
+        <v>-10</v>
+      </c>
+      <c r="C68" s="1">
+        <f>I15</f>
+        <v>-8</v>
+      </c>
+      <c r="D68" s="1">
+        <f>I17</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K63" s="19">
-        <v>1</v>
-      </c>
-      <c r="R63" s="12"/>
-      <c r="S63" s="1">
-        <v>2.9065251153295626</v>
-      </c>
-      <c r="T63" s="1">
-        <v>-4.7003316879233292</v>
-      </c>
-      <c r="U63" s="1">
-        <v>-6.1413947647123273</v>
-      </c>
-      <c r="V63" s="1">
-        <v>1.4654620385405637</v>
-      </c>
-      <c r="W63" s="12">
-        <v>-0.62366585267837771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R64" s="12"/>
-      <c r="S64" s="1">
-        <v>11.26553280554135</v>
-      </c>
-      <c r="T64" s="1">
-        <v>-21.138159228301735</v>
-      </c>
-      <c r="U64" s="1">
-        <v>-25.518694372293364</v>
-      </c>
-      <c r="V64" s="1">
-        <v>6.8849976615497184</v>
-      </c>
-      <c r="W64" s="12">
-        <v>-2.9578396545039372</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="20">
-        <f>K7-I7</f>
+      <c r="E68" s="19">
+        <v>1</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="19">
+        <v>0</v>
+      </c>
+      <c r="R68" s="12"/>
+      <c r="S68" s="1" cm="1">
+        <f t="array" ref="S68:W71">MMULT(_xlfn.ANCHORARRAY(N56),B8:F11)</f>
+        <v>2.1982417751505463E-3</v>
+      </c>
+      <c r="T68" s="1">
+        <v>-13.600016104090438</v>
+      </c>
+      <c r="U68" s="1">
+        <v>2.1423125808870784E-2</v>
+      </c>
+      <c r="V68" s="1">
+        <v>-13.580791220056717</v>
+      </c>
+      <c r="W68" s="12">
+        <v>5.861978067068124E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="G69" s="19"/>
+      <c r="H69" s="20">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K69" s="19">
+        <v>0</v>
+      </c>
+      <c r="R69" s="12"/>
+      <c r="S69" s="1">
+        <v>2.8804547398524403E-3</v>
+      </c>
+      <c r="T69" s="1">
+        <v>-13.386169588562858</v>
+      </c>
+      <c r="U69" s="1">
+        <v>2.215119876538782E-2</v>
+      </c>
+      <c r="V69" s="1">
+        <v>-13.366898844537323</v>
+      </c>
+      <c r="W69" s="12">
+        <v>7.6812126396065064E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="20">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1">
-        <f>K8-I8</f>
-        <v>16</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="E66" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="20">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
-        <f>1-I10</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E67" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="20">
-        <f>I7</f>
-        <v>-10</v>
-      </c>
-      <c r="C68" s="1">
-        <f>I8</f>
-        <v>-8</v>
-      </c>
-      <c r="D68" s="1">
-        <f>I10</f>
+      <c r="B70" s="20">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="19">
+        <v>0</v>
+      </c>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E68" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="20">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="K70" s="19">
+        <v>1</v>
+      </c>
+      <c r="R70" s="12"/>
+      <c r="S70" s="1">
+        <v>7.5043426117208309E-3</v>
+      </c>
+      <c r="T70" s="1">
+        <v>-46.444108200809389</v>
+      </c>
+      <c r="U70" s="1">
+        <v>7.3134119140627868E-2</v>
+      </c>
+      <c r="V70" s="1">
+        <v>-46.37847842428048</v>
+      </c>
+      <c r="W70" s="12">
+        <v>2.0011580297922216E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="26"/>
       <c r="B71" s="20">
         <v>0</v>
       </c>
@@ -3809,9 +4841,25 @@
       <c r="E71" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="1">
+        <v>-0.93159970402069703</v>
+      </c>
+      <c r="T71" s="1">
+        <v>5587.8580867461651</v>
+      </c>
+      <c r="U71" s="1">
+        <v>-8.8421536389444224</v>
+      </c>
+      <c r="V71" s="1">
+        <v>5579.9475328112412</v>
+      </c>
+      <c r="W71" s="12">
+        <v>-2.6509325440551921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="26"/>
       <c r="B72" s="20">
         <v>0</v>
       </c>
@@ -3826,8 +4874,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+    <row r="73" spans="1:23">
+      <c r="A73" s="26"/>
       <c r="B73" s="20">
         <v>0</v>
       </c>
@@ -3842,9 +4890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>66</v>
+    <row r="75" spans="1:23">
+      <c r="A75" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="B75" s="20">
         <v>1</v>
@@ -3859,8 +4907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+    <row r="76" spans="1:23">
+      <c r="A76" s="26"/>
       <c r="B76" s="20">
         <v>0</v>
       </c>
@@ -3874,8 +4922,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+    <row r="77" spans="1:23">
+      <c r="A77" s="26"/>
       <c r="B77" s="20">
         <v>0</v>
       </c>
@@ -3889,8 +4937,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+    <row r="78" spans="1:23">
+      <c r="A78" s="26"/>
       <c r="B78" s="20">
         <v>0.5</v>
       </c>
@@ -3905,30 +4953,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="G20:G23"/>
+  <mergeCells count="14">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="H13:K13"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="G40:G42"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A60:A63"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="T29:T32"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="M49:M52"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
